--- a/dataSources/icons/iconsMap.xlsx
+++ b/dataSources/icons/iconsMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kpotter1/otherCode/paulrwilliamsNew/dataSources/icons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E3B2F1-EA8F-144D-9A4A-EB9BDC1C4D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C45EDFB-3C37-4342-95BB-8059A11121C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="1680" windowWidth="26980" windowHeight="15860" xr2:uid="{4D34CBF4-BD01-144A-AAD2-28BD715DE9C7}"/>
+    <workbookView xWindow="7180" yWindow="1560" windowWidth="23160" windowHeight="16060" activeTab="1" xr2:uid="{4D34CBF4-BD01-144A-AAD2-28BD715DE9C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Building Map" sheetId="1" r:id="rId1"/>
@@ -164,45 +164,9 @@
     <t>fa-question</t>
   </si>
   <si>
-    <t>#7fc97f</t>
-  </si>
-  <si>
-    <t>#beaed4</t>
-  </si>
-  <si>
-    <t>#fdc086</t>
-  </si>
-  <si>
-    <t>#ffff99</t>
-  </si>
-  <si>
-    <t>#386cb0</t>
-  </si>
-  <si>
-    <t>#f0027f</t>
-  </si>
-  <si>
-    <t>#bf5b17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#8EA893 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#C55028 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#43602F </t>
-  </si>
-  <si>
     <t xml:space="preserve">#F6BC52 </t>
   </si>
   <si>
-    <t xml:space="preserve">#CE865D </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#D2C6AE </t>
-  </si>
-  <si>
     <t>fa-city</t>
   </si>
   <si>
@@ -224,27 +188,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>#9ecae1</t>
-  </si>
-  <si>
-    <t>#fee5d9</t>
-  </si>
-  <si>
-    <t>#fcae91</t>
-  </si>
-  <si>
-    <t>#fb6a4a</t>
-  </si>
-  <si>
-    <t>#de2d26</t>
-  </si>
-  <si>
-    <t>#a50f15</t>
-  </si>
-  <si>
-    <t>#ff0000</t>
-  </si>
-  <si>
     <t>Update the Icon and Color columns to change the code. Use the bucket tool to color the row by the R,G,B cells.</t>
   </si>
   <si>
@@ -257,14 +200,71 @@
     <t>#08306b</t>
   </si>
   <si>
-    <t>#4292c6</t>
+    <t>#c6dbef</t>
+  </si>
+  <si>
+    <t>#fd8d3c</t>
+  </si>
+  <si>
+    <t>#00441b</t>
+  </si>
+  <si>
+    <t>#006d2c</t>
+  </si>
+  <si>
+    <t>#2ca25f</t>
+  </si>
+  <si>
+    <t>#2171b5</t>
+  </si>
+  <si>
+    <t>#6baed6</t>
+  </si>
+  <si>
+    <t>#41b6c4</t>
+  </si>
+  <si>
+    <t>#78c679</t>
+  </si>
+  <si>
+    <t>#addd8e</t>
+  </si>
+  <si>
+    <t>#88419d</t>
+  </si>
+  <si>
+    <t>#810f7c</t>
+  </si>
+  <si>
+    <t>#8c6bb1</t>
+  </si>
+  <si>
+    <t>#8dd3c7</t>
+  </si>
+  <si>
+    <t>#bebada</t>
+  </si>
+  <si>
+    <t>#fb8072</t>
+  </si>
+  <si>
+    <t>#80b1d3</t>
+  </si>
+  <si>
+    <t>#fdb462</t>
+  </si>
+  <si>
+    <t>#b3de69</t>
+  </si>
+  <si>
+    <t>#fccde5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -289,6 +289,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF26190A"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -311,133 +318,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3D2812"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCE865D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EA893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF62181C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93372E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB37D8F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2C6AE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF43602F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF605666"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC55028"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF5BC52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3182BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ECAE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEE5D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FC97F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBEAED4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDC086"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF386CB0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0027F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBF5B17"/>
+        <fgColor rgb="FFFD8D3C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2CA25F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006D2C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6DBEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6BAED6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF08306B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2171B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF41B6C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF78C679"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADDD8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00441B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88419D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8C6BB1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF810F7C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DD3C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEBADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB8072"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80B1D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDB462"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFDE69"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCCDE5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,42 +461,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,16 +502,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFBF5B17"/>
-      <color rgb="FFF0027F"/>
-      <color rgb="FF386CB0"/>
-      <color rgb="FFFFFF99"/>
-      <color rgb="FFFDC086"/>
-      <color rgb="FFBEAED4"/>
-      <color rgb="FF7FC97F"/>
-      <color rgb="FFFEE5D9"/>
-      <color rgb="FFDEEBF7"/>
-      <color rgb="FF9ECAE1"/>
+      <color rgb="FFFCCDE5"/>
+      <color rgb="FFAFDE69"/>
+      <color rgb="FFFDB462"/>
+      <color rgb="FF80B1D3"/>
+      <color rgb="FFFB8072"/>
+      <color rgb="FFBEBADA"/>
+      <color rgb="FF8DD3C7"/>
+      <color rgb="FF810F7C"/>
+      <color rgb="FF8C6BB1"/>
+      <color rgb="FF88419D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -820,9 +824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D265E18-E3AF-894E-B571-65A80791ADD7}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,15 +834,15 @@
     <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>69</v>
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -846,364 +850,364 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="9">
         <f xml:space="preserve"> HEX2DEC(MID(C3,2, 2))</f>
-        <v>255</v>
-      </c>
-      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
         <f>HEX2DEC(MID(C3,4,2))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+        <v>109</v>
+      </c>
+      <c r="F3" s="9">
         <f>HEX2DEC(MID(C3,6, 2))</f>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="19">
         <f t="shared" ref="D4:D8" si="0" xml:space="preserve"> HEX2DEC(MID(C4,2, 2))</f>
-        <v>206</v>
-      </c>
-      <c r="E4" s="4">
+        <v>173</v>
+      </c>
+      <c r="E4" s="19">
         <f t="shared" ref="E4:E8" si="1">HEX2DEC(MID(C4,4,2))</f>
-        <v>134</v>
-      </c>
-      <c r="F4" s="4">
+        <v>221</v>
+      </c>
+      <c r="F4" s="19">
         <f t="shared" ref="F4:F9" si="2">HEX2DEC(MID(C4,6, 2))</f>
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="17">
         <f xml:space="preserve"> HEX2DEC(MID(C5,2, 2))</f>
-        <v>210</v>
-      </c>
-      <c r="E5" s="12">
+        <v>120</v>
+      </c>
+      <c r="E5" s="17">
         <f>HEX2DEC(MID(C5,4,2))</f>
         <v>198</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="17">
         <f>HEX2DEC(MID(C5,6, 2))</f>
-        <v>174</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="E6" s="5">
+        <v>44</v>
+      </c>
+      <c r="E6" s="8">
         <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
-      <c r="F6" s="5">
+        <v>162</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="21">
         <f xml:space="preserve"> HEX2DEC(MID(C7,2, 2))</f>
-        <v>67</v>
-      </c>
-      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
         <f>HEX2DEC(MID(C7,4,2))</f>
-        <v>96</v>
-      </c>
-      <c r="F7" s="14">
+        <v>68</v>
+      </c>
+      <c r="F7" s="21">
         <f>HEX2DEC(MID(C7,6, 2))</f>
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="C8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>197</v>
-      </c>
-      <c r="E8" s="16">
+        <v>253</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="F8" s="16">
+        <v>141</v>
+      </c>
+      <c r="F8" s="7">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3">
         <f xml:space="preserve"> HEX2DEC(MID(C9,2, 2))</f>
         <v>246</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="3">
         <f>HEX2DEC(MID(C9,4,2))</f>
         <v>188</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="3">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="B10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="22">
         <f xml:space="preserve"> HEX2DEC(MID(C10,2, 2))</f>
+        <v>136</v>
+      </c>
+      <c r="E10" s="22">
+        <f>HEX2DEC(MID(C10,4,2))</f>
+        <v>65</v>
+      </c>
+      <c r="F10" s="22">
+        <f>HEX2DEC(MID(C10,6, 2))</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="23">
+        <f xml:space="preserve"> HEX2DEC(MID(C11,2, 2))</f>
+        <v>140</v>
+      </c>
+      <c r="E11" s="23">
+        <f>HEX2DEC(MID(C11,4,2))</f>
+        <v>107</v>
+      </c>
+      <c r="F11" s="23">
+        <f>HEX2DEC(MID(C11,6, 2))</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="24">
+        <f xml:space="preserve"> HEX2DEC(MID(C12,2, 2))</f>
+        <v>129</v>
+      </c>
+      <c r="E12" s="24">
+        <f>HEX2DEC(MID(C12,4,2))</f>
+        <v>15</v>
+      </c>
+      <c r="F12" s="24">
+        <f>HEX2DEC(MID(C12,6, 2))</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="15">
+        <f xml:space="preserve"> HEX2DEC(MID(C13,2, 2))</f>
+        <v>65</v>
+      </c>
+      <c r="E13" s="15">
+        <f>HEX2DEC(MID(C13,4,2))</f>
+        <v>182</v>
+      </c>
+      <c r="F13" s="15">
+        <f>HEX2DEC(MID(C13,6, 2))</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="10">
+        <f xml:space="preserve"> HEX2DEC(MID(C14,2, 2))</f>
+        <v>198</v>
+      </c>
+      <c r="E14" s="10">
+        <f>HEX2DEC(MID(C14,4,2))</f>
+        <v>219</v>
+      </c>
+      <c r="F14" s="10">
+        <f>HEX2DEC(MID(C14,6, 2))</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="20">
-        <f>HEX2DEC(MID(C10,4,2))</f>
+      <c r="B15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="11">
+        <f xml:space="preserve"> HEX2DEC(MID(C15,2, 2))</f>
+        <v>107</v>
+      </c>
+      <c r="E15" s="11">
+        <f>HEX2DEC(MID(C15,4,2))</f>
+        <v>174</v>
+      </c>
+      <c r="F15" s="11">
+        <f>HEX2DEC(MID(C15,6, 2))</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="13">
+        <f xml:space="preserve"> HEX2DEC(MID(C16,2, 2))</f>
+        <v>8</v>
+      </c>
+      <c r="E16" s="13">
+        <f>HEX2DEC(MID(C16,4,2))</f>
         <v>48</v>
       </c>
-      <c r="F10" s="20">
-        <f>HEX2DEC(MID(C10,6, 2))</f>
+      <c r="F16" s="13">
+        <f>HEX2DEC(MID(C16,6, 2))</f>
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="21">
-        <f xml:space="preserve"> HEX2DEC(MID(C11,2, 2))</f>
-        <v>66</v>
-      </c>
-      <c r="E11" s="21">
-        <f>HEX2DEC(MID(C11,4,2))</f>
-        <v>146</v>
-      </c>
-      <c r="F11" s="21">
-        <f>HEX2DEC(MID(C11,6, 2))</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="22">
-        <f xml:space="preserve"> HEX2DEC(MID(C12,2, 2))</f>
-        <v>158</v>
-      </c>
-      <c r="E12" s="22">
-        <f>HEX2DEC(MID(C12,4,2))</f>
-        <v>202</v>
-      </c>
-      <c r="F12" s="22">
-        <f>HEX2DEC(MID(C12,6, 2))</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="24">
-        <f xml:space="preserve"> HEX2DEC(MID(C13,2, 2))</f>
-        <v>254</v>
-      </c>
-      <c r="E13" s="24">
-        <f>HEX2DEC(MID(C13,4,2))</f>
-        <v>229</v>
-      </c>
-      <c r="F13" s="24">
-        <f>HEX2DEC(MID(C13,6, 2))</f>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="9">
-        <f xml:space="preserve"> HEX2DEC(MID(C14,2, 2))</f>
-        <v>252</v>
-      </c>
-      <c r="E14" s="9">
-        <f>HEX2DEC(MID(C14,4,2))</f>
-        <v>174</v>
-      </c>
-      <c r="F14" s="9">
-        <f>HEX2DEC(MID(C14,6, 2))</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="10">
-        <f xml:space="preserve"> HEX2DEC(MID(C15,2, 2))</f>
-        <v>251</v>
-      </c>
-      <c r="E15" s="10">
-        <f>HEX2DEC(MID(C15,4,2))</f>
-        <v>106</v>
-      </c>
-      <c r="F15" s="10">
-        <f>HEX2DEC(MID(C15,6, 2))</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="8">
-        <f xml:space="preserve"> HEX2DEC(MID(C16,2, 2))</f>
-        <v>222</v>
-      </c>
-      <c r="E16" s="8">
-        <f>HEX2DEC(MID(C16,4,2))</f>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="8">
-        <f>HEX2DEC(MID(C16,6, 2))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="C17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="14">
         <f xml:space="preserve"> HEX2DEC(MID(C17,2, 2))</f>
-        <v>165</v>
-      </c>
-      <c r="E17" s="15">
+        <v>33</v>
+      </c>
+      <c r="E17" s="14">
         <f>HEX2DEC(MID(C17,4,2))</f>
-        <v>15</v>
-      </c>
-      <c r="F17" s="15">
+        <v>113</v>
+      </c>
+      <c r="F17" s="14">
         <f>HEX2DEC(MID(C17,6, 2))</f>
-        <v>21</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1215,9 +1219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3DA8B2-FCA4-C34A-9CE5-2730815598BF}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,189 +1233,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>69</v>
+      <c r="A1" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>71</v>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="C3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="25">
         <f xml:space="preserve"> HEX2DEC(MID(C3,2, 2))</f>
-        <v>127</v>
-      </c>
-      <c r="E3" s="29">
+        <v>141</v>
+      </c>
+      <c r="E3" s="25">
         <f>HEX2DEC(MID(C3,4,2))</f>
-        <v>201</v>
-      </c>
-      <c r="F3" s="29">
+        <v>211</v>
+      </c>
+      <c r="F3" s="25">
         <f>HEX2DEC(MID(C3,6, 2))</f>
-        <v>127</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="30">
+      <c r="C4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="26">
         <f t="shared" ref="D4:D9" si="0" xml:space="preserve"> HEX2DEC(MID(C4,2, 2))</f>
         <v>190</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="26">
         <f t="shared" ref="E4:E9" si="1">HEX2DEC(MID(C4,4,2))</f>
-        <v>174</v>
-      </c>
-      <c r="F4" s="30">
+        <v>186</v>
+      </c>
+      <c r="F4" s="26">
         <f t="shared" ref="F4:F9" si="2">HEX2DEC(MID(C4,6, 2))</f>
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="C5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="27">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="F5" s="27">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="28">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="E6" s="28">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="F6" s="28">
+        <f t="shared" si="2"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="29">
         <f t="shared" si="0"/>
         <v>253</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E7" s="29">
         <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="F5" s="28">
+        <v>180</v>
+      </c>
+      <c r="F7" s="29">
         <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="31">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="30">
         <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="E6" s="31">
+        <v>179</v>
+      </c>
+      <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="F6" s="31">
+        <v>222</v>
+      </c>
+      <c r="F8" s="30">
         <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="32">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="31">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="E7" s="32">
+        <v>252</v>
+      </c>
+      <c r="E9" s="31">
         <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="F7" s="32">
+        <v>205</v>
+      </c>
+      <c r="F9" s="31">
         <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="33">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E8" s="33">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F8" s="33">
-        <f t="shared" si="2"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="34">
-        <f t="shared" si="0"/>
-        <v>191</v>
-      </c>
-      <c r="E9" s="34">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="F9" s="34">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
